--- a/biology/Botanique/Radula_(plante)/Radula_(plante).xlsx
+++ b/biology/Botanique/Radula_(plante)/Radula_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Radula est un genre d’hépathiques de la famille des Radulaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon BioLib                    (21 avril 2019)[2] :
+          <t xml:space="preserve">Selon BioLib                    (21 avril 2019) :
 Radula auriculata Steph.
 Radula australis Austin
 Radula bolanderi Gottsche
@@ -533,7 +547,7 @@
 Radula tenax Lindb.
 Radula visianica C. Massal.
 Radula voluta Taylor
-Selon Catalogue of Life                                   (21 avril 2019)[3] :
+Selon Catalogue of Life                                   (21 avril 2019) :
 Radula acuminata Steph.
 Radula acuta Mitt.
 Radula acutangula Steph.
@@ -791,7 +805,7 @@
 Radula wrightii Castle
 Radula xalapensis Nees &amp; Mont.
 Radula yanoella R.M.Schust.
-Selon ITIS      (21 avril 2019)[4] :
+Selon ITIS      (21 avril 2019) :
 Radula auriculata Steph.
 Radula australis Aust.
 Radula bolanderi Gott.
@@ -804,7 +818,7 @@
 Radula sullivantii Aust.
 Radula tenax Lindb.
 Radula voluta Tayl.
-Selon NCBI  (21 avril 2019)[5] :
+Selon NCBI  (21 avril 2019) :
 Radula acuta Mitt.
 Radula allamanoi Gola
 Radula allisonii Castle
@@ -895,7 +909,7 @@
 Radula wattsiana Steph.
 Radula weymouthiana Steph.
 Radula yangii K.Yamada
-Selon The Plant List            (21 avril 2019)[6] :
+Selon The Plant List            (21 avril 2019) :
 Radula acuminata Stephani
 Radula affinis Lindenb. &amp; Gottsche
 Radula allamanoi Gola
@@ -1083,7 +1097,7 @@
 Radula xalapensis Nees &amp; Mont.
 Radula yangii K. Yamada
 Radula yanoella R.M. Schust.
-Selon Tropicos                                           (21 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Radula abnormis Steph.
 Radula acuminata Steph.
 Radula acuta Mitt.
